--- a/data/mapping_tables.xlsx
+++ b/data/mapping_tables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\GitHub\FPLAnlysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.satre\Documents\GitHub Repos\FPLAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5766C3-A066-4BA5-80E7-AEE4A4336C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="13410" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="13410" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="understat" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="784">
   <si>
     <t>understat_id</t>
   </si>
@@ -2109,9 +2108,6 @@
     <t>Leeds United</t>
   </si>
   <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
     <t>Burnley</t>
   </si>
   <si>
@@ -2121,12 +2117,6 @@
     <t>Newcastle</t>
   </si>
   <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>West Bromwich Albion</t>
-  </si>
-  <si>
     <t>team_id</t>
   </si>
   <si>
@@ -2380,12 +2370,24 @@
   </si>
   <si>
     <t>Oxlade-Chamberlain</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2458,13 +2460,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2474,18 +2474,18 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <color indexed="8"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2559,30 +2559,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:D398">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D1048576" totalsRowShown="0">
+  <autoFilter ref="A1:D1048576"/>
+  <sortState ref="A69:D398">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fpl_id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="understat_id" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="first_name" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="second_name"/>
+    <tableColumn id="1" name="fpl_id"/>
+    <tableColumn id="2" name="understat_id" dataDxfId="2"/>
+    <tableColumn id="4" name="first_name" dataDxfId="1"/>
+    <tableColumn id="5" name="second_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D651DF9-DE06-498D-AE36-462E54EC5AD2}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21" xr:uid="{ACFEC249-7CBC-4803-9530-6E6809505D05}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
+  <autoFilter ref="A1:B21"/>
+  <sortState ref="A2:B21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1BC0CDCA-5234-4B2C-BEFE-06904E6CED89}" name="spi_team_name" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{D415DD7B-653D-4BFC-86AB-E7945F55D0F6}" name="team_id"/>
+    <tableColumn id="1" name="spi_team_name" dataDxfId="0"/>
+    <tableColumn id="2" name="team_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2884,23 +2884,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>118</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>377</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>572</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>268</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>562</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>419</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>279</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>221</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>531</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>386</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>259</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>201</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>394</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>339</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>104</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>79</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>227</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>509</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>440</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>154</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>437</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>340</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>516</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>368</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>112</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>389</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>140</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>197</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>102</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>310</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>443</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>351</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>543</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>202</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>82</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>106</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>87</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>235</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>412</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>345</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>108</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>376</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>132</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>360</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>400</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>362</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>76</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>458</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>478</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>445</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>262</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>98</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>182</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>424</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>61</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>467</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>101</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>125</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>175</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>164</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>277</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>320</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>496</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>498</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>113</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>569</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>501</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>232</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>234</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>116</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>577</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>459</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>152</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>195</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>205</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>558</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>435</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>486</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>325</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>395</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>163</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>50</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>214</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>166</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>272</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>291</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>539</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>149</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>464</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>565</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>446</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>556</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>570</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>391</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>155</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>451</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>382</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>457</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>512</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>62</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>519</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>421</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>353</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>29</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>526</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>219</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>489</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>431</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>302</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>323</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>515</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>423</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>249</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>346</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>284</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>561</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>450</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>312</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>507</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>438</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>105</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>218</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>422</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>544</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>288</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>407</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>103</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>566</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>158</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>260</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>168</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>582</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>37</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>315</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>57</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>128</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>90</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>271</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>441</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>426</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>203</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>500</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>336</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>178</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>414</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>244</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>485</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>286</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>193</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>390</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>545</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>33</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>122</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>396</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>293</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>233</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>366</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>530</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>159</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>71</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>311</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>123</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>282</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>460</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>452</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>417</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>263</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>468</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>239</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>190</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>388</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>169</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>156</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>261</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>470</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>198</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>491</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>46</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>133</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>107</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>333</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>555</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>54</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>387</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>77</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>439</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>280</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>328</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>173</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>493</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>513</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>308</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>409</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>383</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>403</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>115</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>85</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>361</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>480</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>557</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>511</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>92</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>52</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>266</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>355</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>80</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>231</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>494</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>298</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>275</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>15</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>251</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>332</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>505</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>65</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>502</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>303</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>12</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>442</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>290</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>295</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>246</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>68</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>130</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>357</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>363</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>131</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>38</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>344</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>100</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>309</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>274</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>548</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>518</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>213</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>138</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>241</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>162</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>258</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>41</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>146</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>184</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>492</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>216</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>120</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>392</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>454</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>497</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>7</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>590</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>44</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>236</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>405</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>474</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>466</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>22</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>427</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>349</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>425</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>354</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>381</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>525</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>432</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>188</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>356</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>567</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>455</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>481</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>229</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>204</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>411</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>157</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>83</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>469</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>296</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>96</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>209</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>225</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>119</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>483</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>252</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>554</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>306</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>176</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>365</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>373</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>542</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>181</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>448</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>144</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>322</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>206</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>255</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>484</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>358</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>352</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>408</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>186</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>584</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>299</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>86</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>508</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>364</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>70</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>338</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>461</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>24</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>127</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>254</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>245</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>398</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>278</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>413</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>142</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>217</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>334</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>546</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>210</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>343</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>300</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>321</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>150</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>281</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>504</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>490</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>385</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>579</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>379</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>428</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>449</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>55</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>367</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>276</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>273</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>211</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>238</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>42</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>81</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>253</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>97</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>524</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>517</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>228</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>17</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>121</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>287</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>137</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>418</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>465</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>540</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>69</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>139</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>495</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>250</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>224</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>67</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>369</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>471</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>93</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>148</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>270</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>313</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>134</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>370</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>514</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>66</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>117</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>89</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>74</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>243</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>506</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>397</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>91</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>9</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>436</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>541</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>141</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>191</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>283</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>114</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>110</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>187</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>563</v>
       </c>
@@ -8477,13 +8477,13 @@
         <v>6674</v>
       </c>
       <c r="C399" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D399" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>588</v>
       </c>
@@ -8491,13 +8491,13 @@
         <v>501</v>
       </c>
       <c r="C400" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D400" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>247</v>
       </c>
@@ -8505,13 +8505,13 @@
         <v>888</v>
       </c>
       <c r="C401" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D401" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>307</v>
       </c>
@@ -8519,13 +8519,13 @@
         <v>934</v>
       </c>
       <c r="C402" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D402" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>165</v>
       </c>
@@ -8536,10 +8536,10 @@
         <v>387</v>
       </c>
       <c r="D403" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>160</v>
       </c>
@@ -8547,13 +8547,13 @@
         <v>1084</v>
       </c>
       <c r="C404" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D404" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>88</v>
       </c>
@@ -8564,10 +8564,10 @@
         <v>356</v>
       </c>
       <c r="D405" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>587</v>
       </c>
@@ -8575,13 +8575,13 @@
         <v>3585</v>
       </c>
       <c r="C406" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D406" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>75</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>45</v>
       </c>
@@ -8600,13 +8600,13 @@
         <v>5612</v>
       </c>
       <c r="C408" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D408" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>571</v>
       </c>
@@ -8614,13 +8614,13 @@
         <v>6314</v>
       </c>
       <c r="C409" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D409" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>153</v>
       </c>
@@ -8628,13 +8628,13 @@
         <v>6477</v>
       </c>
       <c r="C410" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D410" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>573</v>
       </c>
@@ -8645,10 +8645,10 @@
         <v>423</v>
       </c>
       <c r="D411" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>564</v>
       </c>
@@ -8656,13 +8656,13 @@
         <v>7395</v>
       </c>
       <c r="C412" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D412" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>487</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>559</v>
       </c>
@@ -8684,13 +8684,13 @@
         <v>8109</v>
       </c>
       <c r="C414" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D414" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>589</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>240</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>597</v>
       </c>
@@ -8729,10 +8729,10 @@
         <v>536</v>
       </c>
       <c r="D417" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>324</v>
       </c>
@@ -8740,13 +8740,13 @@
         <v>875</v>
       </c>
       <c r="C418" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D418" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>111</v>
       </c>
@@ -8754,10 +8754,10 @@
         <v>1245</v>
       </c>
       <c r="C419" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>109</v>
       </c>
@@ -8768,10 +8768,10 @@
         <v>294</v>
       </c>
       <c r="D420" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>568</v>
       </c>
@@ -8779,13 +8779,13 @@
         <v>1828</v>
       </c>
       <c r="C421" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D421" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>550</v>
       </c>
@@ -8793,152 +8793,152 @@
         <v>6350</v>
       </c>
       <c r="C422" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D422" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>256</v>
       </c>
-      <c r="B423" s="6">
+      <c r="B423" s="4">
         <v>484</v>
       </c>
-      <c r="C423" s="6" t="s">
-        <v>740</v>
+      <c r="C423" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D423" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>21</v>
       </c>
-      <c r="B424" s="7">
+      <c r="B424" s="5">
         <v>6492</v>
       </c>
-      <c r="C424" s="8" t="s">
-        <v>745</v>
+      <c r="C424" s="6" t="s">
+        <v>742</v>
       </c>
       <c r="D424" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>20</v>
       </c>
-      <c r="B425" s="7">
+      <c r="B425" s="5">
         <v>6630</v>
       </c>
-      <c r="C425" s="8" t="s">
+      <c r="C425" s="6" t="s">
         <v>428</v>
       </c>
       <c r="D425" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>264</v>
       </c>
-      <c r="B426" s="7">
+      <c r="B426" s="5">
         <v>8204</v>
       </c>
-      <c r="C426" s="8" t="s">
-        <v>746</v>
+      <c r="C426" s="6" t="s">
+        <v>743</v>
       </c>
       <c r="D426" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>359</v>
       </c>
-      <c r="B427" s="6">
+      <c r="B427" s="4">
         <v>1748</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D427" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>535</v>
       </c>
-      <c r="B428" s="7">
+      <c r="B428" s="5">
         <v>7383</v>
       </c>
       <c r="C428" t="s">
         <v>373</v>
       </c>
       <c r="D428" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>305</v>
       </c>
-      <c r="B429" s="7">
+      <c r="B429" s="5">
         <v>7702</v>
       </c>
       <c r="C429" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D429" t="s">
         <v>173</v>
       </c>
-      <c r="G429" s="6"/>
-      <c r="H429" s="6"/>
-      <c r="I429" s="6"/>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G429" s="4"/>
+      <c r="H429" s="4"/>
+      <c r="I429" s="4"/>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>318</v>
       </c>
-      <c r="B430" s="7">
+      <c r="B430" s="5">
         <v>8075</v>
       </c>
       <c r="C430" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D430" t="s">
-        <v>744</v>
-      </c>
-      <c r="G430" s="6"/>
-      <c r="H430" s="6"/>
-      <c r="I430" s="6"/>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+      <c r="G430" s="4"/>
+      <c r="H430" s="4"/>
+      <c r="I430" s="4"/>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>99</v>
       </c>
-      <c r="B431" s="7">
+      <c r="B431" s="5">
         <v>8482</v>
       </c>
       <c r="C431" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D431" t="s">
-        <v>753</v>
-      </c>
-      <c r="G431" s="6"/>
-      <c r="H431" s="6"/>
-      <c r="I431" s="6"/>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+      <c r="G431" s="4"/>
+      <c r="H431" s="4"/>
+      <c r="I431" s="4"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>603</v>
       </c>
-      <c r="B432" s="7">
+      <c r="B432" s="5">
         <v>9163</v>
       </c>
       <c r="C432" t="s">
@@ -8947,322 +8947,322 @@
       <c r="D432" t="s">
         <v>124</v>
       </c>
-      <c r="G432" s="6"/>
-      <c r="H432" s="6"/>
-      <c r="I432" s="6"/>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G432" s="4"/>
+      <c r="H432" s="4"/>
+      <c r="I432" s="4"/>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>329</v>
       </c>
-      <c r="B433" s="6">
+      <c r="B433" s="4">
         <v>743</v>
       </c>
-      <c r="C433" s="6" t="s">
+      <c r="C433" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D433" t="s">
-        <v>754</v>
-      </c>
-      <c r="G433" s="6"/>
-      <c r="H433" s="6"/>
-      <c r="I433" s="6"/>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+      <c r="G433" s="4"/>
+      <c r="H433" s="4"/>
+      <c r="I433" s="4"/>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>510</v>
       </c>
-      <c r="B434" s="6">
+      <c r="B434" s="4">
         <v>9205</v>
       </c>
-      <c r="C434" s="6" t="s">
-        <v>771</v>
+      <c r="C434" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="D434" t="s">
-        <v>755</v>
-      </c>
-      <c r="G434" s="6"/>
-      <c r="H434" s="6"/>
-      <c r="I434" s="6"/>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+      <c r="G434" s="4"/>
+      <c r="H434" s="4"/>
+      <c r="I434" s="4"/>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>129</v>
       </c>
-      <c r="B435" s="6">
+      <c r="B435" s="4">
         <v>530</v>
       </c>
-      <c r="C435" s="6" t="s">
+      <c r="C435" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D435" t="s">
-        <v>756</v>
-      </c>
-      <c r="G435" s="6"/>
-      <c r="H435" s="6"/>
-      <c r="I435" s="6"/>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+        <v>753</v>
+      </c>
+      <c r="G435" s="4"/>
+      <c r="H435" s="4"/>
+      <c r="I435" s="4"/>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>529</v>
       </c>
-      <c r="B436" s="6">
+      <c r="B436" s="4">
         <v>587</v>
       </c>
-      <c r="C436" s="6" t="s">
+      <c r="C436" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D436" t="s">
-        <v>757</v>
-      </c>
-      <c r="G436" s="6"/>
-      <c r="H436" s="6"/>
-      <c r="I436" s="6"/>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+        <v>754</v>
+      </c>
+      <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
+      <c r="I436" s="4"/>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>335</v>
       </c>
-      <c r="B437" s="6">
+      <c r="B437" s="4">
         <v>727</v>
       </c>
-      <c r="C437" s="6" t="s">
-        <v>772</v>
+      <c r="C437" s="4" t="s">
+        <v>769</v>
       </c>
       <c r="D437" t="s">
-        <v>758</v>
-      </c>
-      <c r="G437" s="6"/>
-      <c r="H437" s="6"/>
-      <c r="I437" s="6"/>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+      <c r="G437" s="4"/>
+      <c r="H437" s="4"/>
+      <c r="I437" s="4"/>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>5</v>
       </c>
-      <c r="B438" s="6">
+      <c r="B438" s="4">
         <v>847</v>
       </c>
-      <c r="C438" s="6" t="s">
-        <v>773</v>
+      <c r="C438" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="D438" t="s">
-        <v>759</v>
-      </c>
-      <c r="G438" s="6"/>
-      <c r="H438" s="6"/>
-      <c r="I438" s="6"/>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+        <v>756</v>
+      </c>
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
+      <c r="I438" s="4"/>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>415</v>
       </c>
-      <c r="B439" s="6">
+      <c r="B439" s="4">
         <v>848</v>
       </c>
-      <c r="C439" s="6" t="s">
+      <c r="C439" s="4" t="s">
         <v>372</v>
       </c>
       <c r="D439" t="s">
-        <v>760</v>
-      </c>
-      <c r="G439" s="6"/>
-      <c r="H439" s="6"/>
-      <c r="I439" s="6"/>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+        <v>757</v>
+      </c>
+      <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
+      <c r="I439" s="4"/>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>331</v>
       </c>
-      <c r="B440" s="6">
+      <c r="B440" s="4">
         <v>853</v>
       </c>
-      <c r="C440" s="6" t="s">
+      <c r="C440" s="4" t="s">
         <v>489</v>
       </c>
       <c r="D440" t="s">
-        <v>770</v>
-      </c>
-      <c r="G440" s="6"/>
-      <c r="H440" s="6"/>
-      <c r="I440" s="6"/>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+        <v>767</v>
+      </c>
+      <c r="G440" s="4"/>
+      <c r="H440" s="4"/>
+      <c r="I440" s="4"/>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>248</v>
       </c>
-      <c r="B441" s="6">
+      <c r="B441" s="4">
         <v>966</v>
       </c>
-      <c r="C441" s="6" t="s">
+      <c r="C441" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D441" t="s">
-        <v>782</v>
-      </c>
-      <c r="G441" s="6"/>
-      <c r="H441" s="6"/>
-      <c r="I441" s="6"/>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+        <v>779</v>
+      </c>
+      <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
+      <c r="I441" s="4"/>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>549</v>
       </c>
-      <c r="B442" s="6">
+      <c r="B442" s="4">
         <v>2163</v>
       </c>
-      <c r="C442" s="6" t="s">
-        <v>774</v>
+      <c r="C442" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="D442" t="s">
-        <v>761</v>
-      </c>
-      <c r="G442" s="6"/>
-      <c r="H442" s="6"/>
-      <c r="I442" s="6"/>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+        <v>758</v>
+      </c>
+      <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
+      <c r="I442" s="4"/>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>410</v>
       </c>
-      <c r="B443" s="6">
+      <c r="B443" s="4">
         <v>3231</v>
       </c>
-      <c r="C443" s="6" t="s">
-        <v>775</v>
+      <c r="C443" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="D443" t="s">
-        <v>762</v>
-      </c>
-      <c r="G443" s="6"/>
-      <c r="H443" s="6"/>
-      <c r="I443" s="6"/>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
+      <c r="I443" s="4"/>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>600</v>
       </c>
-      <c r="B444" s="6">
+      <c r="B444" s="4">
         <v>6822</v>
       </c>
-      <c r="C444" s="6" t="s">
-        <v>776</v>
+      <c r="C444" s="4" t="s">
+        <v>773</v>
       </c>
       <c r="D444" t="s">
-        <v>763</v>
-      </c>
-      <c r="G444" s="6"/>
-      <c r="H444" s="6"/>
-      <c r="I444" s="6"/>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+      <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
+      <c r="I444" s="4"/>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>39</v>
       </c>
-      <c r="B445" s="6">
+      <c r="B445" s="4">
         <v>6859</v>
       </c>
-      <c r="C445" s="6" t="s">
-        <v>777</v>
+      <c r="C445" s="4" t="s">
+        <v>774</v>
       </c>
       <c r="D445" t="s">
-        <v>764</v>
-      </c>
-      <c r="G445" s="6"/>
-      <c r="H445" s="6"/>
-      <c r="I445" s="6"/>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+        <v>761</v>
+      </c>
+      <c r="G445" s="4"/>
+      <c r="H445" s="4"/>
+      <c r="I445" s="4"/>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>26</v>
       </c>
-      <c r="B446" s="6">
+      <c r="B446" s="4">
         <v>7752</v>
       </c>
-      <c r="C446" s="6" t="s">
+      <c r="C446" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D446" t="s">
-        <v>765</v>
-      </c>
-      <c r="G446" s="6"/>
-      <c r="H446" s="6"/>
-      <c r="I446" s="6"/>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+        <v>762</v>
+      </c>
+      <c r="G446" s="4"/>
+      <c r="H446" s="4"/>
+      <c r="I446" s="4"/>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>560</v>
       </c>
-      <c r="B447" s="6">
+      <c r="B447" s="4">
         <v>7904</v>
       </c>
-      <c r="C447" s="6" t="s">
-        <v>778</v>
+      <c r="C447" s="4" t="s">
+        <v>775</v>
       </c>
       <c r="D447" t="s">
-        <v>766</v>
-      </c>
-      <c r="G447" s="6"/>
-      <c r="H447" s="6"/>
-      <c r="I447" s="6"/>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+        <v>763</v>
+      </c>
+      <c r="G447" s="4"/>
+      <c r="H447" s="4"/>
+      <c r="I447" s="4"/>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>124</v>
       </c>
-      <c r="B448" s="6">
+      <c r="B448" s="4">
         <v>7988</v>
       </c>
-      <c r="C448" s="6" t="s">
+      <c r="C448" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D448" t="s">
-        <v>767</v>
-      </c>
-      <c r="G448" s="6"/>
-      <c r="H448" s="6"/>
-      <c r="I448" s="6"/>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+      <c r="G448" s="4"/>
+      <c r="H448" s="4"/>
+      <c r="I448" s="4"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>581</v>
       </c>
-      <c r="B449" s="6">
+      <c r="B449" s="4">
         <v>8180</v>
       </c>
-      <c r="C449" s="6" t="s">
-        <v>779</v>
+      <c r="C449" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="D449" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>594</v>
       </c>
-      <c r="B450" s="6">
+      <c r="B450" s="4">
         <v>9086</v>
       </c>
-      <c r="C450" s="6" t="s">
-        <v>780</v>
+      <c r="C450" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="D450" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>574</v>
       </c>
-      <c r="B451" s="6">
+      <c r="B451" s="4">
         <v>9099</v>
       </c>
-      <c r="C451" s="6" t="s">
-        <v>781</v>
+      <c r="C451" s="4" t="s">
+        <v>778</v>
       </c>
       <c r="D451" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -9274,182 +9274,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD49A6CE-88BB-4D58-AF7E-8EBE0B6B302D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>682</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>725</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>780</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>693</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>680</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>692</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>694</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>686</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>693</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>696</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>686</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>726</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>723</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>727</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>679</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>678</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>681</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>731</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>692</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>688</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>729</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>697</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>782</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>728</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>730</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>727</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9461,28 +9461,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B177C-F722-4C6B-BCB7-5B44BAE667B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>677</v>
       </c>
       <c r="B1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>682</v>
       </c>
@@ -9490,87 +9490,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>693</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>679</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>678</v>
       </c>
@@ -9578,31 +9578,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>681</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>695</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>688</v>
       </c>
@@ -9610,32 +9610,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>683</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>697</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>782</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>687</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>685</v>
       </c>
       <c r="B21">
